--- a/Penman_irrigation_results.xlsx
+++ b/Penman_irrigation_results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC47"/>
+  <dimension ref="A1:BC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -719,25 +719,25 @@
         <v>45423</v>
       </c>
       <c r="B2" t="n">
-        <v>5.1549</v>
+        <v>5.5396</v>
       </c>
       <c r="C2" t="n">
-        <v>1.016</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>335.5833</v>
+        <v>412.0417</v>
       </c>
       <c r="E2" t="n">
-        <v>16.2708</v>
+        <v>18.2222</v>
       </c>
       <c r="F2" t="n">
-        <v>57.1458</v>
+        <v>42.7917</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>2.093</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5719</v>
+        <v>8.956300000000001</v>
       </c>
       <c r="I2" t="n">
         <v>0.7445000000000001</v>
@@ -746,22 +746,22 @@
         <v>131</v>
       </c>
       <c r="K2" t="n">
-        <v>97.51300000000001</v>
+        <v>97.529</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0645</v>
+        <v>0.0646</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7927999999999999</v>
+        <v>1.1974</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1179</v>
+        <v>0.1314</v>
       </c>
       <c r="O2" t="n">
-        <v>14.0791</v>
+        <v>15.8195</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1948</v>
+        <v>0.2643</v>
       </c>
       <c r="Q2" t="n">
         <v>19</v>
@@ -779,10 +779,10 @@
         <v>0.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.039</v>
+        <v>0.0529</v>
       </c>
       <c r="W2" t="n">
-        <v>0.039</v>
+        <v>0.0529</v>
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -8222,25 +8222,25 @@
         <v>45468</v>
       </c>
       <c r="B47" t="n">
-        <v>3.7262</v>
+        <v>3.4841</v>
       </c>
       <c r="C47" t="n">
-        <v>1.524</v>
+        <v>2.032</v>
       </c>
       <c r="D47" t="n">
-        <v>24.0588</v>
+        <v>84.33329999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>23.219</v>
+        <v>23.8611</v>
       </c>
       <c r="F47" t="n">
-        <v>70.2353</v>
+        <v>71.3125</v>
       </c>
       <c r="G47" t="n">
-        <v>2.8469</v>
+        <v>2.9591</v>
       </c>
       <c r="H47" t="n">
-        <v>19.995</v>
+        <v>21.1023</v>
       </c>
       <c r="I47" t="n">
         <v>0.4167</v>
@@ -8249,22 +8249,22 @@
         <v>176</v>
       </c>
       <c r="K47" t="n">
-        <v>97.571</v>
+        <v>97.57599999999999</v>
       </c>
       <c r="L47" t="n">
         <v>0.065</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8474</v>
+        <v>0.8489</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1719</v>
+        <v>0.1778</v>
       </c>
       <c r="O47" t="n">
-        <v>2.8719</v>
+        <v>5.3728</v>
       </c>
       <c r="P47" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="Q47" t="n">
         <v>26</v>
@@ -8282,10 +8282,10 @@
         <v>0.73</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0936</v>
+        <v>0.1107</v>
       </c>
       <c r="W47" t="n">
-        <v>0.0716</v>
+        <v>0.0847</v>
       </c>
       <c r="X47" t="n">
         <v>-0.07199999999999999</v>
@@ -8330,22 +8330,22 @@
         <v>4.5533</v>
       </c>
       <c r="AL47" t="n">
-        <v>3.7225</v>
+        <v>3.7196</v>
       </c>
       <c r="AM47" t="n">
-        <v>2.2926</v>
+        <v>2.2857</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.9655</v>
+        <v>3.9626</v>
       </c>
       <c r="AO47" t="n">
-        <v>1.6176</v>
+        <v>1.6107</v>
       </c>
       <c r="AP47" t="n">
-        <v>3.6415</v>
+        <v>3.6386</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.2356</v>
+        <v>2.2287</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -8366,22 +8366,189 @@
         <v>0</v>
       </c>
       <c r="AX47" t="n">
-        <v>71.3121</v>
+        <v>71.2561</v>
       </c>
       <c r="AY47" t="n">
-        <v>43.9196</v>
+        <v>43.7867</v>
       </c>
       <c r="AZ47" t="n">
-        <v>75.96729999999999</v>
+        <v>75.9113</v>
       </c>
       <c r="BA47" t="n">
-        <v>30.9886</v>
+        <v>30.8557</v>
       </c>
       <c r="BB47" t="n">
-        <v>69.7604</v>
+        <v>69.70440000000001</v>
       </c>
       <c r="BC47" t="n">
-        <v>42.8277</v>
+        <v>42.6948</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.6791</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="D48" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>21.5578</v>
+      </c>
+      <c r="F48" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.5735</v>
+      </c>
+      <c r="H48" t="n">
+        <v>22.0292</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J48" t="n">
+        <v>177</v>
+      </c>
+      <c r="K48" t="n">
+        <v>97.557</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0648</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.3706</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1574</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3.9418</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>26</v>
+      </c>
+      <c r="R48" t="n">
+        <v>8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>6</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.0507</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>25.9048</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>21.1429</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>4.6486</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>3.7076</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.2947</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>3.9566</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.6227</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>3.6326</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>2.2347</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>0.0212</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>71.0262</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>43.9591</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>75.7963</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>31.0856</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>69.5894</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>42.8097</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_results.xlsx
+++ b/Penman_irrigation_results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC48"/>
+  <dimension ref="A1:BC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -719,25 +719,25 @@
         <v>45423</v>
       </c>
       <c r="B2" t="n">
-        <v>5.5396</v>
+        <v>5.1549</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.016</v>
       </c>
       <c r="D2" t="n">
-        <v>412.0417</v>
+        <v>335.5833</v>
       </c>
       <c r="E2" t="n">
-        <v>18.2222</v>
+        <v>16.2708</v>
       </c>
       <c r="F2" t="n">
-        <v>42.7917</v>
+        <v>57.1458</v>
       </c>
       <c r="G2" t="n">
-        <v>2.093</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>8.956300000000001</v>
+        <v>10.5719</v>
       </c>
       <c r="I2" t="n">
         <v>0.7445000000000001</v>
@@ -746,22 +746,22 @@
         <v>131</v>
       </c>
       <c r="K2" t="n">
-        <v>97.529</v>
+        <v>97.51300000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0646</v>
+        <v>0.0645</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1974</v>
+        <v>0.7927999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1314</v>
+        <v>0.1179</v>
       </c>
       <c r="O2" t="n">
-        <v>15.8195</v>
+        <v>14.0791</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2643</v>
+        <v>0.1948</v>
       </c>
       <c r="Q2" t="n">
         <v>19</v>
@@ -779,10 +779,10 @@
         <v>0.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0529</v>
+        <v>0.039</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0529</v>
+        <v>0.039</v>
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -8389,25 +8389,25 @@
         <v>45469</v>
       </c>
       <c r="B48" t="n">
-        <v>1.6791</v>
+        <v>1.6187</v>
       </c>
       <c r="C48" t="n">
         <v>1.524</v>
       </c>
       <c r="D48" t="n">
-        <v>51.2</v>
+        <v>143.7917</v>
       </c>
       <c r="E48" t="n">
-        <v>21.5578</v>
+        <v>22.7998</v>
       </c>
       <c r="F48" t="n">
-        <v>85.59999999999999</v>
+        <v>79.70829999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>2.5735</v>
+        <v>2.7756</v>
       </c>
       <c r="H48" t="n">
-        <v>22.0292</v>
+        <v>22.1238</v>
       </c>
       <c r="I48" t="n">
         <v>0.4167</v>
@@ -8416,22 +8416,22 @@
         <v>177</v>
       </c>
       <c r="K48" t="n">
-        <v>97.557</v>
+        <v>97.56699999999999</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0648</v>
+        <v>0.0649</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3706</v>
+        <v>0.5632</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1574</v>
+        <v>0.1681</v>
       </c>
       <c r="O48" t="n">
-        <v>3.9418</v>
+        <v>7.9601</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0531</v>
+        <v>0.1022</v>
       </c>
       <c r="Q48" t="n">
         <v>26</v>
@@ -8449,10 +8449,10 @@
         <v>0.73</v>
       </c>
       <c r="V48" t="n">
-        <v>0.0507</v>
+        <v>0.0975</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0388</v>
+        <v>0.0746</v>
       </c>
       <c r="X48" t="n">
         <v>0.012</v>
@@ -8497,58 +8497,225 @@
         <v>4.6486</v>
       </c>
       <c r="AL48" t="n">
-        <v>3.7076</v>
+        <v>3.7451</v>
       </c>
       <c r="AM48" t="n">
-        <v>2.2947</v>
+        <v>2.3093</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.9566</v>
+        <v>3.9941</v>
       </c>
       <c r="AO48" t="n">
-        <v>1.6227</v>
+        <v>1.6373</v>
       </c>
       <c r="AP48" t="n">
-        <v>3.6326</v>
+        <v>3.6701</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.2347</v>
+        <v>2.2493</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.009299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.0212</v>
+        <v>0</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.009299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.0212</v>
+        <v>0</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.009299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.0212</v>
+        <v>0</v>
       </c>
       <c r="AX48" t="n">
-        <v>71.0262</v>
+        <v>71.7444</v>
       </c>
       <c r="AY48" t="n">
-        <v>43.9591</v>
+        <v>44.2386</v>
       </c>
       <c r="AZ48" t="n">
-        <v>75.7963</v>
+        <v>76.5145</v>
       </c>
       <c r="BA48" t="n">
-        <v>31.0856</v>
+        <v>31.365</v>
       </c>
       <c r="BB48" t="n">
-        <v>69.5894</v>
+        <v>70.30759999999999</v>
       </c>
       <c r="BC48" t="n">
-        <v>42.8097</v>
+        <v>43.0891</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.7931</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>91.33329999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>17.4074</v>
+      </c>
+      <c r="F49" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.9883</v>
+      </c>
+      <c r="H49" t="n">
+        <v>17.7955</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J49" t="n">
+        <v>178</v>
+      </c>
+      <c r="K49" t="n">
+        <v>97.523</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.2087</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.1256</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5.6562</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.0589</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>26</v>
+      </c>
+      <c r="R49" t="n">
+        <v>8</v>
+      </c>
+      <c r="S49" t="n">
+        <v>6</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.0562</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.039</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.021</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>26.381</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>21.619</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>4.7438</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>3.8043</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.3762</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>4.0563</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.7192</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>3.7503</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>2.3132</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>72.8785</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>45.522</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>77.70610000000001</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>32.9358</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>71.84399999999999</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>44.3151</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_results.xlsx
+++ b/Penman_irrigation_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Penman_irrigation_results.xlsx
+++ b/Penman_irrigation_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC49"/>
+  <dimension ref="A1:BC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0.0387</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0327</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="AN3" t="n">
         <v>0.0387</v>
@@ -1021,7 +1021,7 @@
         <v>3.7578</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.175</v>
+        <v>0.9604</v>
       </c>
       <c r="AZ3" t="n">
         <v>3.7578</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0.0747</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0567</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0.0747</v>
@@ -1188,7 +1188,7 @@
         <v>6.562</v>
       </c>
       <c r="AY4" t="n">
-        <v>4.9817</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
         <v>6.562</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0502</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0.08019999999999999</v>
@@ -1355,7 +1355,7 @@
         <v>6.4219</v>
       </c>
       <c r="AY5" t="n">
-        <v>4.0191</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
         <v>6.4219</v>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0.08019999999999999</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0442</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0.08019999999999999</v>
@@ -1522,7 +1522,7 @@
         <v>5.904</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.2532</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
         <v>5.904</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.036</v>
+        <v>0.1728</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>0.1006</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0286</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0.1006</v>
@@ -1689,7 +1689,7 @@
         <v>6.8524</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.9465</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>6.8524</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.042</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0.1308</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1008</v>
+        <v>0.0302</v>
       </c>
       <c r="AN8" t="n">
         <v>0.1308</v>
@@ -1856,7 +1856,7 @@
         <v>8.292999999999999</v>
       </c>
       <c r="AY8" t="n">
-        <v>6.3908</v>
+        <v>1.9164</v>
       </c>
       <c r="AZ8" t="n">
         <v>8.292999999999999</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0.1648</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.1228</v>
+        <v>0.0066</v>
       </c>
       <c r="AN9" t="n">
         <v>0.1648</v>
@@ -2023,7 +2023,7 @@
         <v>9.769399999999999</v>
       </c>
       <c r="AY9" t="n">
-        <v>7.2793</v>
+        <v>0.3918</v>
       </c>
       <c r="AZ9" t="n">
         <v>9.769399999999999</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.024</v>
+        <v>0.1152</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0.1704</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.1044</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0.1704</v>
@@ -2190,7 +2190,7 @@
         <v>9.488300000000001</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.8139</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
         <v>9.488300000000001</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.024</v>
+        <v>0.1152</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0.2269</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.1246</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
         <v>0.2269</v>
@@ -2357,7 +2357,7 @@
         <v>11.9083</v>
       </c>
       <c r="AY11" t="n">
-        <v>6.5396</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
         <v>11.9083</v>
@@ -2443,7 +2443,7 @@
         <v>0.0505</v>
       </c>
       <c r="X12" t="n">
-        <v>0.054</v>
+        <v>0.2592</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -2452,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.024</v>
+        <v>0.1152</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.054</v>
+        <v>0.2592</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.06</v>
+        <v>0.288</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
@@ -2485,22 +2485,22 @@
         <v>0.92</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.2375</v>
+        <v>0.0323</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.1511</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0.2915</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.2111</v>
+        <v>0.0059</v>
       </c>
       <c r="AP12" t="n">
         <v>0.2915</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2051</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>11.7869</v>
+        <v>1.6045</v>
       </c>
       <c r="AY12" t="n">
-        <v>7.5002</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
         <v>14.4665</v>
       </c>
       <c r="BA12" t="n">
-        <v>10.4776</v>
+        <v>0.2951</v>
       </c>
       <c r="BB12" t="n">
         <v>14.4665</v>
       </c>
       <c r="BC12" t="n">
-        <v>10.1798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2610,22 +2610,22 @@
         <v>0.0498</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.002</v>
+        <v>0.216</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.057</v>
+        <v>0.2736</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.057</v>
+        <v>0.2736</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.708</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.078</v>
+        <v>0.3744</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.168</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -2652,22 +2652,22 @@
         <v>1.0295</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.3032</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.9089</v>
+        <v>0.0498</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.2982</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1829</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.2982</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.4229</v>
+        <v>0.0498</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -2688,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>61.333</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>42.7778</v>
+        <v>2.3428</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14.0336</v>
+        <v>3.8395</v>
       </c>
       <c r="BA13" t="n">
-        <v>8.609299999999999</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>14.0336</v>
+        <v>3.8395</v>
       </c>
       <c r="BC13" t="n">
-        <v>19.9046</v>
+        <v>2.3428</v>
       </c>
     </row>
     <row r="14">
@@ -2777,22 +2777,22 @@
         <v>0.0399</v>
       </c>
       <c r="X14" t="n">
-        <v>0.078</v>
+        <v>0.3744</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.141</v>
+        <v>0.6768</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.126</v>
+        <v>0.6048</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.075</v>
+        <v>0.36</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.057</v>
+        <v>0.2736</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.078</v>
+        <v>0.3744</v>
       </c>
       <c r="AD14" t="n">
         <v>0</v>
@@ -2819,22 +2819,22 @@
         <v>1.139</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.2762</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.8739</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.2082</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.1659</v>
+        <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.2232</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.3849</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -2855,22 +2855,22 @@
         <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>57.1211</v>
+        <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>39.1118</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9.320600000000001</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.4238</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>9.991899999999999</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>17.2256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2944,22 +2944,22 @@
         <v>0.0245</v>
       </c>
       <c r="X15" t="n">
-        <v>0.021</v>
+        <v>0.1008</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.057</v>
+        <v>0.2736</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.054</v>
+        <v>0.2592</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.045</v>
+        <v>0.216</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.033</v>
+        <v>0.1584</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.036</v>
+        <v>0.1728</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -2986,22 +2986,22 @@
         <v>1.2486</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.2552</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.8289</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.1512</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.1329</v>
+        <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.1692</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.3489</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
         <v>0.5586</v>
@@ -3022,22 +3022,22 @@
         <v>0.5655</v>
       </c>
       <c r="AX15" t="n">
-        <v>53.5559</v>
+        <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>35.3642</v>
+        <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6.4531</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.6689</v>
+        <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>7.2211</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>14.8847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3111,22 +3111,22 @@
         <v>0.0399</v>
       </c>
       <c r="X16" t="n">
-        <v>1.41</v>
+        <v>6.768</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.501</v>
+        <v>2.4048</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.783</v>
+        <v>3.7584</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.54</v>
+        <v>2.592</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.15</v>
+        <v>0.72</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.405</v>
+        <v>1.944</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>1.3581</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.1038</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.3287</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.2988</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.0227</v>
+        <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.5628</v>
+        <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.0163</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="AX16" t="n">
-        <v>-4.2306</v>
+        <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>13.3992</v>
+        <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-12.179</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.9263</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>-22.9398</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0.6633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3278,22 +3278,22 @@
         <v>0.0226</v>
       </c>
       <c r="X17" t="n">
-        <v>0.003</v>
+        <v>0.144</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.5669999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.081</v>
+        <v>0.1008</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.066</v>
+        <v>0.3744</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.285</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
@@ -3320,22 +3320,22 @@
         <v>1.4676</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.1068</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.4097</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.2958</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.0433</v>
+        <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0042</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.2687</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
         <v>0.6811</v>
@@ -3356,22 +3356,22 @@
         <v>0.6874</v>
       </c>
       <c r="AX17" t="n">
-        <v>-4.1669</v>
+        <v>0</v>
       </c>
       <c r="AY17" t="n">
-        <v>15.9871</v>
+        <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-11.5414</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
-        <v>-1.6885</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.1642</v>
+        <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>10.4854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3445,22 +3445,22 @@
         <v>0.03</v>
       </c>
       <c r="X18" t="n">
-        <v>0.126</v>
+        <v>0.6048</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.054</v>
+        <v>0.2592</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.018</v>
+        <v>0.0864</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.099</v>
+        <v>0.504</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.153</v>
+        <v>0.7344000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.144</v>
+        <v>0.6912</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
@@ -3487,22 +3487,22 @@
         <v>1.5771</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.2328</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.3107</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>-0.3498</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.1963</v>
+        <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0.0138</v>
+        <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.1247</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0.039</v>
@@ -3523,22 +3523,22 @@
         <v>0.06</v>
       </c>
       <c r="AX18" t="n">
-        <v>-8.711</v>
+        <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>11.6273</v>
+        <v>0</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-13.0891</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>-7.3445</v>
+        <v>0</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.516</v>
+        <v>0</v>
       </c>
       <c r="BC18" t="n">
-        <v>4.6672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3612,22 +3612,22 @@
         <v>0.0368</v>
       </c>
       <c r="X19" t="n">
-        <v>0.012</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0</v>
+        <v>0.0432</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.015</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.096</v>
+        <v>0.4608</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.105</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -3654,22 +3654,22 @@
         <v>1.6867</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.2021</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.3126</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>-0.3131</v>
+        <v>0.0139</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.2754</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.2466</v>
+        <v>0.0168</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -3690,22 +3690,22 @@
         <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>-7.2695</v>
+        <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>11.2434</v>
+        <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-11.2623</v>
+        <v>0.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>-9.9076</v>
+        <v>0</v>
       </c>
       <c r="BB19" t="n">
-        <v>1.0399</v>
+        <v>0</v>
       </c>
       <c r="BC19" t="n">
-        <v>8.869300000000001</v>
+        <v>0.6058</v>
       </c>
     </row>
     <row r="20">
@@ -3779,22 +3779,22 @@
         <v>0.039</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.024</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.033</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.054</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.057</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.018</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
@@ -3821,22 +3821,22 @@
         <v>1.7962</v>
       </c>
       <c r="AL20" t="n">
-        <v>-0.1117</v>
+        <v>0.0663</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.4056</v>
+        <v>0.039</v>
       </c>
       <c r="AN20" t="n">
-        <v>-0.2137</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="AO20" t="n">
-        <v>-0.1794</v>
+        <v>0.039</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.0953</v>
+        <v>0.0663</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.3036</v>
+        <v>0.0558</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -3857,22 +3857,22 @@
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>-3.8801</v>
+        <v>2.3036</v>
       </c>
       <c r="AY20" t="n">
-        <v>14.0816</v>
+        <v>1.3536</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-7.4218</v>
+        <v>2.7863</v>
       </c>
       <c r="BA20" t="n">
-        <v>-6.2309</v>
+        <v>1.3536</v>
       </c>
       <c r="BB20" t="n">
-        <v>3.3074</v>
+        <v>2.3036</v>
       </c>
       <c r="BC20" t="n">
-        <v>10.54</v>
+        <v>1.9384</v>
       </c>
     </row>
     <row r="21">
@@ -3946,22 +3946,22 @@
         <v>0.0422</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.222</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.048</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.102</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -3988,22 +3988,22 @@
         <v>1.9057</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.0279</v>
+        <v>0.1382</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.5168</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0801</v>
+        <v>0.1521</v>
       </c>
       <c r="AO21" t="n">
-        <v>-0.0352</v>
+        <v>0.08119999999999999</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.2151</v>
+        <v>0.1382</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.3488</v>
+        <v>0.098</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>-0.9364</v>
+        <v>4.6372</v>
       </c>
       <c r="AY21" t="n">
-        <v>17.3411</v>
+        <v>2.7248</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2.6878</v>
+        <v>5.1036</v>
       </c>
       <c r="BA21" t="n">
-        <v>-1.1824</v>
+        <v>2.7248</v>
       </c>
       <c r="BB21" t="n">
-        <v>7.218</v>
+        <v>4.6372</v>
       </c>
       <c r="BC21" t="n">
-        <v>11.7035</v>
+        <v>3.2899</v>
       </c>
     </row>
     <row r="22">
@@ -4113,22 +4113,22 @@
         <v>0.0488</v>
       </c>
       <c r="X22" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.018</v>
+        <v>0.0144</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.003</v>
+        <v>0.0288</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.015</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.003</v>
+        <v>0.0144</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -4155,22 +4155,22 @@
         <v>2.0152</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.0432</v>
+        <v>0.1637</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.5506</v>
+        <v>0.058</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.1812</v>
+        <v>0.2207</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.0106</v>
+        <v>0.1156</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.3012</v>
+        <v>0.1925</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.3976</v>
+        <v>0.1324</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -4191,22 +4191,22 @@
         <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.4013</v>
+        <v>5.3133</v>
       </c>
       <c r="AY22" t="n">
-        <v>17.8757</v>
+        <v>1.8833</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5.8818</v>
+        <v>7.1672</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.3433</v>
+        <v>3.7534</v>
       </c>
       <c r="BB22" t="n">
-        <v>9.777900000000001</v>
+        <v>6.2484</v>
       </c>
       <c r="BC22" t="n">
-        <v>12.9082</v>
+        <v>4.3002</v>
       </c>
     </row>
     <row r="23">
@@ -4280,22 +4280,22 @@
         <v>0.0226</v>
       </c>
       <c r="X23" t="n">
-        <v>0.063</v>
+        <v>0.3024</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.027</v>
+        <v>0.1296</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.03</v>
+        <v>0.144</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.018</v>
+        <v>0.0864</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AD23" t="n">
         <v>0</v>
@@ -4322,22 +4322,22 @@
         <v>2.1248</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.0198</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.5206</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.1752</v>
+        <v>0.1919</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.0074</v>
+        <v>0.0292</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.2742</v>
+        <v>0.0629</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.3856</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="AR23" t="n">
         <v>0.1916</v>
@@ -4358,22 +4358,22 @@
         <v>0.2074</v>
       </c>
       <c r="AX23" t="n">
-        <v>-0.6239</v>
+        <v>0</v>
       </c>
       <c r="AY23" t="n">
-        <v>16.3702</v>
+        <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5.5081</v>
+        <v>6.0361</v>
       </c>
       <c r="BA23" t="n">
-        <v>-0.2336</v>
+        <v>0.9184</v>
       </c>
       <c r="BB23" t="n">
-        <v>8.6213</v>
+        <v>1.9764</v>
       </c>
       <c r="BC23" t="n">
-        <v>12.1249</v>
+        <v>2.3537</v>
       </c>
     </row>
     <row r="24">
@@ -4447,22 +4447,22 @@
         <v>0.0281</v>
       </c>
       <c r="X24" t="n">
-        <v>0.015</v>
+        <v>0.1008</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.039</v>
+        <v>0.1872</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.018</v>
+        <v>0.0864</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.24</v>
+        <v>1.152</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -4489,22 +4489,22 @@
         <v>2.2343</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.4997</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.207</v>
+        <v>0.201</v>
       </c>
       <c r="AO24" t="n">
-        <v>-0.0073</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.306</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.1637</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -4525,22 +4525,22 @@
         <v>0</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.09130000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY24" t="n">
-        <v>15.2342</v>
+        <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6.3108</v>
+        <v>6.1276</v>
       </c>
       <c r="BA24" t="n">
-        <v>-0.2231</v>
+        <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>9.3291</v>
+        <v>2.1917</v>
       </c>
       <c r="BC24" t="n">
-        <v>4.9903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4614,22 +4614,22 @@
         <v>0.0653</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.015</v>
+        <v>0.0288</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.015</v>
+        <v>0.0864</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.015</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.237</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -4656,22 +4656,22 @@
         <v>2.3438</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.1319</v>
+        <v>0.0851</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.5649</v>
+        <v>0.0653</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.3059</v>
+        <v>0.2285</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.0429</v>
+        <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.4229</v>
+        <v>0.1858</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.4659</v>
+        <v>0.0653</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>3.9013</v>
+        <v>2.5169</v>
       </c>
       <c r="AY25" t="n">
-        <v>16.7143</v>
+        <v>1.9308</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9.049300000000001</v>
+        <v>6.7591</v>
       </c>
       <c r="BA25" t="n">
-        <v>1.2705</v>
+        <v>0</v>
       </c>
       <c r="BB25" t="n">
-        <v>12.5108</v>
+        <v>5.4958</v>
       </c>
       <c r="BC25" t="n">
-        <v>13.7853</v>
+        <v>1.9308</v>
       </c>
     </row>
     <row r="26">
@@ -4790,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.027</v>
+        <v>0.1296</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.015</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -4823,22 +4823,22 @@
         <v>2.4533</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.241</v>
+        <v>0.1943</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.6005</v>
+        <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.415</v>
+        <v>0.3376</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.0905</v>
+        <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.532</v>
+        <v>0.2949</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.5195</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
@@ -4859,22 +4859,22 @@
         <v>0</v>
       </c>
       <c r="AX26" t="n">
-        <v>6.9266</v>
+        <v>5.582</v>
       </c>
       <c r="AY26" t="n">
-        <v>17.2562</v>
+        <v>0</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11.9266</v>
+        <v>9.702199999999999</v>
       </c>
       <c r="BA26" t="n">
-        <v>2.6011</v>
+        <v>0</v>
       </c>
       <c r="BB26" t="n">
-        <v>15.2887</v>
+        <v>8.475300000000001</v>
       </c>
       <c r="BC26" t="n">
-        <v>14.9287</v>
+        <v>2.4321</v>
       </c>
     </row>
     <row r="27">
@@ -4957,13 +4957,13 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.036</v>
+        <v>0.1728</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.027</v>
+        <v>0.1296</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.018</v>
+        <v>0.0864</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -4990,22 +4990,22 @@
         <v>2.5629</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.241</v>
+        <v>0.1943</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.5645</v>
+        <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.415</v>
+        <v>0.3376</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.0635</v>
+        <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.532</v>
+        <v>0.2949</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.5014999999999999</v>
+        <v>0</v>
       </c>
       <c r="AR27" t="n">
         <v>0.3475</v>
@@ -5026,22 +5026,22 @@
         <v>0.3742</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.7332</v>
+        <v>5.426</v>
       </c>
       <c r="AY27" t="n">
-        <v>15.7686</v>
+        <v>0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>11.5935</v>
+        <v>9.4312</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.7742</v>
+        <v>0</v>
       </c>
       <c r="BB27" t="n">
-        <v>14.8617</v>
+        <v>8.2385</v>
       </c>
       <c r="BC27" t="n">
-        <v>14.0089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5115,22 +5115,22 @@
         <v>0.0838</v>
       </c>
       <c r="X28" t="n">
-        <v>0.15</v>
+        <v>0.72</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.273</v>
+        <v>1.3104</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.138</v>
+        <v>0.6624</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.036</v>
+        <v>0.1728</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.039</v>
+        <v>0.1872</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.036</v>
+        <v>0.1728</v>
       </c>
       <c r="AD28" t="n">
         <v>0</v>
@@ -5157,22 +5157,22 @@
         <v>2.6724</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.2372</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.6123</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.2882</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.1083</v>
+        <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.5402</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.5493</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="AX28" t="n">
-        <v>6.4461</v>
+        <v>0</v>
       </c>
       <c r="AY28" t="n">
-        <v>16.6383</v>
+        <v>0</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7.832</v>
+        <v>0</v>
       </c>
       <c r="BA28" t="n">
-        <v>2.9427</v>
+        <v>0</v>
       </c>
       <c r="BB28" t="n">
-        <v>14.6798</v>
+        <v>0</v>
       </c>
       <c r="BC28" t="n">
-        <v>14.9264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5282,22 +5282,22 @@
         <v>0.0833</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.012</v>
+        <v>0.0144</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.171</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.018</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -5324,22 +5324,22 @@
         <v>2.78</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.3946</v>
+        <v>0.1309</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.6866</v>
+        <v>0.0401</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.6046</v>
+        <v>0.1453</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.1976</v>
+        <v>0.0833</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.6916</v>
+        <v>0.1453</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.6506</v>
+        <v>0.0833</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -5360,22 +5360,22 @@
         <v>0</v>
       </c>
       <c r="AX29" t="n">
-        <v>10.4381</v>
+        <v>3.4641</v>
       </c>
       <c r="AY29" t="n">
-        <v>18.1638</v>
+        <v>1.0608</v>
       </c>
       <c r="AZ29" t="n">
-        <v>15.9936</v>
+        <v>3.845</v>
       </c>
       <c r="BA29" t="n">
-        <v>5.2272</v>
+        <v>2.2037</v>
       </c>
       <c r="BB29" t="n">
-        <v>18.2952</v>
+        <v>3.845</v>
       </c>
       <c r="BC29" t="n">
-        <v>17.2114</v>
+        <v>2.2037</v>
       </c>
     </row>
     <row r="30">
@@ -5449,22 +5449,22 @@
         <v>0.0498</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.039</v>
+        <v>0.0144</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.021</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.003</v>
+        <v>0.0144</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0</v>
+        <v>0.0144</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>
@@ -5491,22 +5491,22 @@
         <v>2.88</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.5204</v>
+        <v>0.2034</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.7244</v>
+        <v>0.0323</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.7034</v>
+        <v>0.2322</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.2444</v>
+        <v>0.1187</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.7994</v>
+        <v>0.2322</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.7004</v>
+        <v>0.1187</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         <v>0</v>
       </c>
       <c r="AX30" t="n">
-        <v>13.4123</v>
+        <v>5.2417</v>
       </c>
       <c r="AY30" t="n">
-        <v>18.669</v>
+        <v>0.8316</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18.1288</v>
+        <v>5.984</v>
       </c>
       <c r="BA30" t="n">
-        <v>6.2979</v>
+        <v>3.0584</v>
       </c>
       <c r="BB30" t="n">
-        <v>20.603</v>
+        <v>5.984</v>
       </c>
       <c r="BC30" t="n">
-        <v>18.0505</v>
+        <v>3.0584</v>
       </c>
     </row>
     <row r="31">
@@ -5616,19 +5616,19 @@
         <v>0.07340000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.051</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.021</v>
+        <v>0.1008</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -5658,22 +5658,22 @@
         <v>2.98</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.6424</v>
+        <v>0.3026</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.0048</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.8344</v>
+        <v>0.3602</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.3087</v>
+        <v>0.1488</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.9784</v>
+        <v>0.3602</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -5694,22 +5694,22 @@
         <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>16.1406</v>
+        <v>7.6025</v>
       </c>
       <c r="AY31" t="n">
-        <v>19.5155</v>
+        <v>0.1213</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20.9647</v>
+        <v>9.0497</v>
       </c>
       <c r="BA31" t="n">
-        <v>7.7567</v>
+        <v>3.7394</v>
       </c>
       <c r="BB31" t="n">
-        <v>24.5828</v>
+        <v>9.0497</v>
       </c>
       <c r="BC31" t="n">
-        <v>19.4402</v>
+        <v>4.8248</v>
       </c>
     </row>
     <row r="32">
@@ -5783,22 +5783,22 @@
         <v>0.0704</v>
       </c>
       <c r="X32" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.015</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -5825,22 +5825,22 @@
         <v>3.08</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.7534</v>
+        <v>0.368</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.8322000000000001</v>
+        <v>0.0033</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.9634</v>
+        <v>0.4832</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.3702</v>
+        <v>0.1761</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.1104</v>
+        <v>0.4832</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.8442</v>
+        <v>0.2481</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
@@ -5861,22 +5861,22 @@
         <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>18.4786</v>
+        <v>9.025499999999999</v>
       </c>
       <c r="AY32" t="n">
-        <v>20.4105</v>
+        <v>0.0803</v>
       </c>
       <c r="AZ32" t="n">
-        <v>23.6293</v>
+        <v>11.851</v>
       </c>
       <c r="BA32" t="n">
-        <v>9.0791</v>
+        <v>4.3186</v>
       </c>
       <c r="BB32" t="n">
-        <v>27.2348</v>
+        <v>11.851</v>
       </c>
       <c r="BC32" t="n">
-        <v>20.7048</v>
+        <v>6.0845</v>
       </c>
     </row>
     <row r="33">
@@ -5950,19 +5950,19 @@
         <v>0.0838</v>
       </c>
       <c r="X33" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.003</v>
+        <v>0.0144</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
@@ -5992,22 +5992,22 @@
         <v>3.18</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.8938</v>
+        <v>0.4855</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.904</v>
+        <v>0.0295</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.1098</v>
+        <v>0.6151</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.448</v>
+        <v>0.2311</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.2538</v>
+        <v>0.6151</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.928</v>
+        <v>0.3319</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -6028,22 +6028,22 @@
         <v>0</v>
       </c>
       <c r="AX33" t="n">
-        <v>21.4207</v>
+        <v>11.6369</v>
       </c>
       <c r="AY33" t="n">
-        <v>21.666</v>
+        <v>0.7069</v>
       </c>
       <c r="AZ33" t="n">
-        <v>26.5976</v>
+        <v>14.743</v>
       </c>
       <c r="BA33" t="n">
-        <v>10.737</v>
+        <v>5.5387</v>
       </c>
       <c r="BB33" t="n">
-        <v>30.0489</v>
+        <v>14.743</v>
       </c>
       <c r="BC33" t="n">
-        <v>22.2412</v>
+        <v>7.9546</v>
       </c>
     </row>
     <row r="34">
@@ -6117,22 +6117,22 @@
         <v>0.1128</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.018</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.003</v>
+        <v>0.0144</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -6159,22 +6159,22 @@
         <v>3.28</v>
       </c>
       <c r="AL34" t="n">
-        <v>1.0967</v>
+        <v>0.6825</v>
       </c>
       <c r="AM34" t="n">
-        <v>1.0108</v>
+        <v>0.1135</v>
       </c>
       <c r="AN34" t="n">
-        <v>1.3247</v>
+        <v>0.8121</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.5578</v>
+        <v>0.3295</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.4567</v>
+        <v>0.8121</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.0438</v>
+        <v>0.4447</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -6195,22 +6195,22 @@
         <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>25.6975</v>
+        <v>15.9915</v>
       </c>
       <c r="AY34" t="n">
-        <v>23.6846</v>
+        <v>2.659</v>
       </c>
       <c r="AZ34" t="n">
-        <v>31.0401</v>
+        <v>19.0283</v>
       </c>
       <c r="BA34" t="n">
-        <v>13.0698</v>
+        <v>7.7204</v>
       </c>
       <c r="BB34" t="n">
-        <v>34.1332</v>
+        <v>19.0283</v>
       </c>
       <c r="BC34" t="n">
-        <v>24.4579</v>
+        <v>10.4198</v>
       </c>
     </row>
     <row r="35">
@@ -6284,22 +6284,22 @@
         <v>0.1202</v>
       </c>
       <c r="X35" t="n">
-        <v>0.003</v>
+        <v>0.0288</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.021</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.024</v>
+        <v>0.1152</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.021</v>
+        <v>0.1008</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -6326,22 +6326,22 @@
         <v>3.38</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.0937</v>
+        <v>0.6536999999999999</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.9868</v>
+        <v>0</v>
       </c>
       <c r="AN35" t="n">
-        <v>1.3457</v>
+        <v>0.8121</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.5368000000000001</v>
+        <v>0.2287</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.4477</v>
+        <v>0.7689</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.0348</v>
+        <v>0.4015</v>
       </c>
       <c r="AR35" t="n">
         <v>0.3601</v>
@@ -6362,22 +6362,22 @@
         <v>0.4498</v>
       </c>
       <c r="AX35" t="n">
-        <v>25.0678</v>
+        <v>14.9823</v>
       </c>
       <c r="AY35" t="n">
-        <v>22.6175</v>
+        <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>30.8439</v>
+        <v>18.6129</v>
       </c>
       <c r="BA35" t="n">
-        <v>12.3031</v>
+        <v>5.2415</v>
       </c>
       <c r="BB35" t="n">
-        <v>33.1818</v>
+        <v>17.6228</v>
       </c>
       <c r="BC35" t="n">
-        <v>23.7177</v>
+        <v>9.202199999999999</v>
       </c>
     </row>
     <row r="36">
@@ -6451,22 +6451,22 @@
         <v>0.1016</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.4032</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.27</v>
+        <v>1.296</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.555</v>
+        <v>2.664</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.048</v>
+        <v>0.2304</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.039</v>
+        <v>0.1872</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.279</v>
+        <v>1.3392</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -6493,22 +6493,22 @@
         <v>3.48</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.0097</v>
+        <v>0.2505</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.9388</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>1.0757</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.4978</v>
+        <v>0.0415</v>
       </c>
       <c r="AP36" t="n">
-        <v>0.8927</v>
+        <v>0</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.7558</v>
+        <v>0</v>
       </c>
       <c r="AR36" t="n">
         <v>0.0026</v>
@@ -6529,22 +6529,22 @@
         <v>0.0784</v>
       </c>
       <c r="AX36" t="n">
-        <v>22.6481</v>
+        <v>5.618</v>
       </c>
       <c r="AY36" t="n">
-        <v>21.0576</v>
+        <v>0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>24.1285</v>
+        <v>0</v>
       </c>
       <c r="BA36" t="n">
-        <v>11.1655</v>
+        <v>0.9304</v>
       </c>
       <c r="BB36" t="n">
-        <v>20.0236</v>
+        <v>0</v>
       </c>
       <c r="BC36" t="n">
-        <v>16.9527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6618,22 +6618,22 @@
         <v>0.0999</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.045</v>
+        <v>0.0576</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.186</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.465</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.048</v>
+        <v>0.2304</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.042</v>
+        <v>0.2016</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.231</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -6660,22 +6660,22 @@
         <v>3.58</v>
       </c>
       <c r="AL37" t="n">
-        <v>1.2292</v>
+        <v>0.3673</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.9907</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>1.4362</v>
+        <v>0.1745</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.5557</v>
+        <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5322</v>
+        <v>0.1745</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.0867</v>
+        <v>0.0999</v>
       </c>
       <c r="AR37" t="n">
         <v>0</v>
@@ -6696,22 +6696,22 @@
         <v>0</v>
       </c>
       <c r="AX37" t="n">
-        <v>26.9947</v>
+        <v>8.067600000000001</v>
       </c>
       <c r="AY37" t="n">
-        <v>21.7577</v>
+        <v>0</v>
       </c>
       <c r="AZ37" t="n">
-        <v>31.5409</v>
+        <v>3.8321</v>
       </c>
       <c r="BA37" t="n">
-        <v>12.2043</v>
+        <v>0</v>
       </c>
       <c r="BB37" t="n">
-        <v>33.6492</v>
+        <v>3.8321</v>
       </c>
       <c r="BC37" t="n">
-        <v>23.8661</v>
+        <v>2.1947</v>
       </c>
     </row>
     <row r="38">
@@ -6785,22 +6785,22 @@
         <v>0.1239</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.021</v>
+        <v>0.0144</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.036</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.024</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.021</v>
+        <v>0</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0864</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
@@ -6827,22 +6827,22 @@
         <v>3.68</v>
       </c>
       <c r="AL38" t="n">
-        <v>1.4665</v>
+        <v>0.5692</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.1386</v>
+        <v>0.1239</v>
       </c>
       <c r="AN38" t="n">
-        <v>1.7395</v>
+        <v>0.3908</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.7006</v>
+        <v>0.1239</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.7845</v>
+        <v>0.3908</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.2016</v>
+        <v>0.1374</v>
       </c>
       <c r="AR38" t="n">
         <v>0</v>
@@ -6863,22 +6863,22 @@
         <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>31.5465</v>
+        <v>12.2456</v>
       </c>
       <c r="AY38" t="n">
-        <v>24.4932</v>
+        <v>2.6649</v>
       </c>
       <c r="AZ38" t="n">
-        <v>37.4193</v>
+        <v>8.406700000000001</v>
       </c>
       <c r="BA38" t="n">
-        <v>15.071</v>
+        <v>2.6649</v>
       </c>
       <c r="BB38" t="n">
-        <v>38.3873</v>
+        <v>8.406700000000001</v>
       </c>
       <c r="BC38" t="n">
-        <v>25.8485</v>
+        <v>2.9561</v>
       </c>
     </row>
     <row r="39">
@@ -6952,22 +6952,22 @@
         <v>0.1478</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.048</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.111</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.015</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
@@ -6994,22 +6994,22 @@
         <v>3.78</v>
       </c>
       <c r="AL39" t="n">
-        <v>1.7576</v>
+        <v>0.8123</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.2744</v>
+        <v>0.2141</v>
       </c>
       <c r="AN39" t="n">
-        <v>2.0936</v>
+        <v>0.6339</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.8334</v>
+        <v>0.1997</v>
       </c>
       <c r="AP39" t="n">
-        <v>2.0396</v>
+        <v>0.6339</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.3554</v>
+        <v>0.2852</v>
       </c>
       <c r="AR39" t="n">
         <v>0</v>
@@ -7030,22 +7030,22 @@
         <v>0</v>
       </c>
       <c r="AX39" t="n">
-        <v>37.0497</v>
+        <v>17.1244</v>
       </c>
       <c r="AY39" t="n">
-        <v>26.8637</v>
+        <v>4.5125</v>
       </c>
       <c r="AZ39" t="n">
-        <v>44.1326</v>
+        <v>13.3625</v>
       </c>
       <c r="BA39" t="n">
-        <v>17.5674</v>
+        <v>4.2089</v>
       </c>
       <c r="BB39" t="n">
-        <v>42.9943</v>
+        <v>13.3625</v>
       </c>
       <c r="BC39" t="n">
-        <v>28.5712</v>
+        <v>6.012</v>
       </c>
     </row>
     <row r="40">
@@ -7119,22 +7119,22 @@
         <v>0.1099</v>
       </c>
       <c r="X40" t="n">
-        <v>-0.066</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-0.123</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.018</v>
+        <v>0.0864</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.027</v>
+        <v>0.1296</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.012</v>
+        <v>0.0576</v>
       </c>
       <c r="AD40" t="n">
         <v>0</v>
@@ -7161,22 +7161,22 @@
         <v>3.88</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.9943</v>
+        <v>0.9831</v>
       </c>
       <c r="AM40" t="n">
-        <v>1.3562</v>
+        <v>0.2275</v>
       </c>
       <c r="AN40" t="n">
-        <v>2.3873</v>
+        <v>0.8046</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.9062</v>
+        <v>0.1699</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2133</v>
+        <v>0.8046</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.4432</v>
+        <v>0.3275</v>
       </c>
       <c r="AR40" t="n">
         <v>0</v>
@@ -7197,22 +7197,22 @@
         <v>0</v>
       </c>
       <c r="AX40" t="n">
-        <v>41.2126</v>
+        <v>20.3156</v>
       </c>
       <c r="AY40" t="n">
-        <v>28.0268</v>
+        <v>4.7019</v>
       </c>
       <c r="AZ40" t="n">
-        <v>49.334</v>
+        <v>16.6278</v>
       </c>
       <c r="BA40" t="n">
-        <v>18.7275</v>
+        <v>3.5116</v>
       </c>
       <c r="BB40" t="n">
-        <v>45.7383</v>
+        <v>16.6278</v>
       </c>
       <c r="BC40" t="n">
-        <v>29.8247</v>
+        <v>6.7671</v>
       </c>
     </row>
     <row r="41">
@@ -7286,22 +7286,22 @@
         <v>0.116</v>
       </c>
       <c r="X41" t="n">
-        <v>-0.066</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.015</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.021</v>
+        <v>0.1008</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.006</v>
+        <v>0.0144</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>3.98</v>
       </c>
       <c r="AL41" t="n">
-        <v>2.2511</v>
+        <v>1.1739</v>
       </c>
       <c r="AM41" t="n">
-        <v>1.4572</v>
+        <v>0.2715</v>
       </c>
       <c r="AN41" t="n">
-        <v>2.6381</v>
+        <v>0.9955000000000001</v>
       </c>
       <c r="AO41" t="n">
-        <v>1.0012</v>
+        <v>0.1851</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.3951</v>
+        <v>0.9235</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5652</v>
+        <v>0.4291</v>
       </c>
       <c r="AR41" t="n">
         <v>0</v>
@@ -7364,22 +7364,22 @@
         <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>45.6224</v>
+        <v>23.7911</v>
       </c>
       <c r="AY41" t="n">
-        <v>29.533</v>
+        <v>5.5031</v>
       </c>
       <c r="AZ41" t="n">
-        <v>53.4654</v>
+        <v>20.1744</v>
       </c>
       <c r="BA41" t="n">
-        <v>20.2915</v>
+        <v>3.7521</v>
       </c>
       <c r="BB41" t="n">
-        <v>48.5407</v>
+        <v>18.7153</v>
       </c>
       <c r="BC41" t="n">
-        <v>31.7217</v>
+        <v>8.6958</v>
       </c>
     </row>
     <row r="42">
@@ -7453,22 +7453,22 @@
         <v>0.1371</v>
       </c>
       <c r="X42" t="n">
-        <v>-0.135</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>-0.117</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.048</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.012</v>
+        <v>0.0288</v>
       </c>
       <c r="AC42" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -7495,22 +7495,22 @@
         <v>4.0771</v>
       </c>
       <c r="AL42" t="n">
-        <v>2.6116</v>
+        <v>1.3994</v>
       </c>
       <c r="AM42" t="n">
-        <v>1.6063</v>
+        <v>0.4086</v>
       </c>
       <c r="AN42" t="n">
-        <v>2.9806</v>
+        <v>1.221</v>
       </c>
       <c r="AO42" t="n">
-        <v>1.1503</v>
+        <v>0.2934</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.6686</v>
+        <v>1.149</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.7143</v>
+        <v>0.5662</v>
       </c>
       <c r="AR42" t="n">
         <v>0</v>
@@ -7531,22 +7531,22 @@
         <v>0</v>
       </c>
       <c r="AX42" t="n">
-        <v>51.9262</v>
+        <v>27.8242</v>
       </c>
       <c r="AY42" t="n">
-        <v>31.9379</v>
+        <v>8.124499999999999</v>
       </c>
       <c r="AZ42" t="n">
-        <v>59.2629</v>
+        <v>24.276</v>
       </c>
       <c r="BA42" t="n">
-        <v>22.8714</v>
+        <v>5.834</v>
       </c>
       <c r="BB42" t="n">
-        <v>53.0595</v>
+        <v>22.8445</v>
       </c>
       <c r="BC42" t="n">
-        <v>34.0852</v>
+        <v>11.2566</v>
       </c>
     </row>
     <row r="43">
@@ -7620,22 +7620,22 @@
         <v>0.1353</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.156</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.126</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.027</v>
+        <v>0.0288</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0432</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -7662,22 +7662,22 @@
         <v>4.1724</v>
       </c>
       <c r="AL43" t="n">
-        <v>2.9902</v>
+        <v>1.622</v>
       </c>
       <c r="AM43" t="n">
-        <v>1.7686</v>
+        <v>0.5151</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.3292</v>
+        <v>1.4436</v>
       </c>
       <c r="AO43" t="n">
-        <v>1.2766</v>
+        <v>0.3855</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.9782</v>
+        <v>1.3716</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.8556</v>
+        <v>0.7015</v>
       </c>
       <c r="AR43" t="n">
         <v>0</v>
@@ -7698,22 +7698,22 @@
         <v>0</v>
       </c>
       <c r="AX43" t="n">
-        <v>58.3485</v>
+        <v>31.6504</v>
       </c>
       <c r="AY43" t="n">
-        <v>34.5115</v>
+        <v>10.0518</v>
       </c>
       <c r="AZ43" t="n">
-        <v>64.9635</v>
+        <v>28.1682</v>
       </c>
       <c r="BA43" t="n">
-        <v>24.911</v>
+        <v>7.5229</v>
       </c>
       <c r="BB43" t="n">
-        <v>58.1144</v>
+        <v>26.7632</v>
       </c>
       <c r="BC43" t="n">
-        <v>36.2091</v>
+        <v>13.6877</v>
       </c>
     </row>
     <row r="44">
@@ -7787,22 +7787,22 @@
         <v>0.1365</v>
       </c>
       <c r="X44" t="n">
-        <v>-0.138</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-0.096</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>-0.045</v>
+        <v>0.0144</v>
       </c>
       <c r="AB44" t="n">
-        <v>-0.015</v>
+        <v>0.0288</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -7829,22 +7829,22 @@
         <v>4.2676</v>
       </c>
       <c r="AL44" t="n">
-        <v>3.3528</v>
+        <v>1.8466</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.9502</v>
+        <v>0.6373</v>
       </c>
       <c r="AN44" t="n">
-        <v>3.6498</v>
+        <v>1.6682</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.4282</v>
+        <v>0.4933</v>
       </c>
       <c r="AP44" t="n">
-        <v>3.2928</v>
+        <v>1.5962</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.9982</v>
+        <v>0.838</v>
       </c>
       <c r="AR44" t="n">
         <v>0</v>
@@ -7865,22 +7865,22 @@
         <v>0</v>
       </c>
       <c r="AX44" t="n">
-        <v>64.23050000000001</v>
+        <v>35.3757</v>
       </c>
       <c r="AY44" t="n">
-        <v>37.3595</v>
+        <v>12.2082</v>
       </c>
       <c r="AZ44" t="n">
-        <v>69.92010000000001</v>
+        <v>31.957</v>
       </c>
       <c r="BA44" t="n">
-        <v>27.3595</v>
+        <v>9.4495</v>
       </c>
       <c r="BB44" t="n">
-        <v>63.081</v>
+        <v>30.5777</v>
       </c>
       <c r="BC44" t="n">
-        <v>38.2791</v>
+        <v>16.0536</v>
       </c>
     </row>
     <row r="45">
@@ -7954,22 +7954,22 @@
         <v>0.1127</v>
       </c>
       <c r="X45" t="n">
-        <v>-0.105</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>-0.057</v>
+        <v>0</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.027</v>
+        <v>0</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="n">
         <v>0</v>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="AH45" t="n">
-        <v>24.4762</v>
+        <v>24</v>
       </c>
       <c r="AI45" t="n">
         <v>19.7143</v>
@@ -7996,22 +7996,22 @@
         <v>4.3629</v>
       </c>
       <c r="AL45" t="n">
-        <v>3.4578</v>
+        <v>1.8466</v>
       </c>
       <c r="AM45" t="n">
-        <v>2.0072</v>
+        <v>0.6373</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.7098</v>
+        <v>1.6682</v>
       </c>
       <c r="AO45" t="n">
-        <v>1.4552</v>
+        <v>0.4933</v>
       </c>
       <c r="AP45" t="n">
-        <v>3.3618</v>
+        <v>1.5962</v>
       </c>
       <c r="AQ45" t="n">
-        <v>2.0072</v>
+        <v>0.838</v>
       </c>
       <c r="AR45" t="n">
         <v>0.1246</v>
@@ -8032,22 +8032,22 @@
         <v>0.1973</v>
       </c>
       <c r="AX45" t="n">
-        <v>66.242</v>
+        <v>35.3757</v>
       </c>
       <c r="AY45" t="n">
-        <v>38.4515</v>
+        <v>12.2082</v>
       </c>
       <c r="AZ45" t="n">
-        <v>71.06959999999999</v>
+        <v>31.957</v>
       </c>
       <c r="BA45" t="n">
-        <v>27.8768</v>
+        <v>9.4495</v>
       </c>
       <c r="BB45" t="n">
-        <v>64.4029</v>
+        <v>30.5777</v>
       </c>
       <c r="BC45" t="n">
-        <v>38.4515</v>
+        <v>16.0536</v>
       </c>
     </row>
     <row r="46">
@@ -8121,22 +8121,22 @@
         <v>0.1538</v>
       </c>
       <c r="X46" t="n">
-        <v>0.042</v>
+        <v>0.2016</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.042</v>
+        <v>0.2016</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.096</v>
+        <v>0.4608</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.039</v>
+        <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.042</v>
+        <v>0.2304</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.021</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>24.9524</v>
+        <v>24</v>
       </c>
       <c r="AI46" t="n">
         <v>20.1905</v>
@@ -8163,22 +8163,22 @@
         <v>4.4581</v>
       </c>
       <c r="AL46" t="n">
-        <v>3.6169</v>
+        <v>1.8461</v>
       </c>
       <c r="AM46" t="n">
-        <v>2.2</v>
+        <v>0.7911</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.8689</v>
+        <v>1.6676</v>
       </c>
       <c r="AO46" t="n">
-        <v>1.567</v>
+        <v>0.4167</v>
       </c>
       <c r="AP46" t="n">
-        <v>3.4669</v>
+        <v>1.3364</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.182</v>
+        <v>0.9918</v>
       </c>
       <c r="AR46" t="n">
         <v>0</v>
@@ -8199,22 +8199,22 @@
         <v>0</v>
       </c>
       <c r="AX46" t="n">
-        <v>69.28870000000001</v>
+        <v>35.365</v>
       </c>
       <c r="AY46" t="n">
-        <v>42.1452</v>
+        <v>15.1547</v>
       </c>
       <c r="AZ46" t="n">
-        <v>74.1163</v>
+        <v>31.9463</v>
       </c>
       <c r="BA46" t="n">
-        <v>30.0187</v>
+        <v>7.9823</v>
       </c>
       <c r="BB46" t="n">
-        <v>66.4152</v>
+        <v>25.6015</v>
       </c>
       <c r="BC46" t="n">
-        <v>41.8003</v>
+        <v>19.0002</v>
       </c>
     </row>
     <row r="47">
@@ -8288,22 +8288,22 @@
         <v>0.0847</v>
       </c>
       <c r="X47" t="n">
-        <v>-0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.063</v>
+        <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>-0.141</v>
+        <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>-0.081</v>
+        <v>0</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.039</v>
+        <v>0</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.042</v>
+        <v>0</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="AH47" t="n">
-        <v>25.4286</v>
+        <v>24</v>
       </c>
       <c r="AI47" t="n">
         <v>20.6667</v>
@@ -8330,22 +8330,22 @@
         <v>4.5533</v>
       </c>
       <c r="AL47" t="n">
-        <v>3.7196</v>
+        <v>1.8768</v>
       </c>
       <c r="AM47" t="n">
-        <v>2.2857</v>
+        <v>0.7958</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.9626</v>
+        <v>1.6983</v>
       </c>
       <c r="AO47" t="n">
-        <v>1.6107</v>
+        <v>0.4214</v>
       </c>
       <c r="AP47" t="n">
-        <v>3.6386</v>
+        <v>1.3671</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.2287</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="AR47" t="n">
         <v>0</v>
@@ -8366,22 +8366,22 @@
         <v>0</v>
       </c>
       <c r="AX47" t="n">
-        <v>71.2561</v>
+        <v>35.9531</v>
       </c>
       <c r="AY47" t="n">
-        <v>43.7867</v>
+        <v>15.2446</v>
       </c>
       <c r="AZ47" t="n">
-        <v>75.9113</v>
+        <v>32.5344</v>
       </c>
       <c r="BA47" t="n">
-        <v>30.8557</v>
+        <v>8.072100000000001</v>
       </c>
       <c r="BB47" t="n">
-        <v>69.70440000000001</v>
+        <v>26.1896</v>
       </c>
       <c r="BC47" t="n">
-        <v>42.6948</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="48">
@@ -8455,22 +8455,22 @@
         <v>0.0746</v>
       </c>
       <c r="X48" t="n">
-        <v>0.012</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.006</v>
+        <v>0.0288</v>
       </c>
       <c r="AA48" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.0144</v>
       </c>
       <c r="AB48" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.006</v>
+        <v>0.0144</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>25.9048</v>
+        <v>24</v>
       </c>
       <c r="AI48" t="n">
         <v>21.1429</v>
@@ -8497,22 +8497,22 @@
         <v>4.6486</v>
       </c>
       <c r="AL48" t="n">
-        <v>3.7451</v>
+        <v>1.8422</v>
       </c>
       <c r="AM48" t="n">
-        <v>2.3093</v>
+        <v>0.796</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.9941</v>
+        <v>1.707</v>
       </c>
       <c r="AO48" t="n">
-        <v>1.6373</v>
+        <v>0.436</v>
       </c>
       <c r="AP48" t="n">
-        <v>3.6701</v>
+        <v>1.3758</v>
       </c>
       <c r="AQ48" t="n">
-        <v>2.2493</v>
+        <v>0.9967</v>
       </c>
       <c r="AR48" t="n">
         <v>0</v>
@@ -8533,22 +8533,22 @@
         <v>0</v>
       </c>
       <c r="AX48" t="n">
-        <v>71.7444</v>
+        <v>35.2919</v>
       </c>
       <c r="AY48" t="n">
-        <v>44.2386</v>
+        <v>15.2481</v>
       </c>
       <c r="AZ48" t="n">
-        <v>76.5145</v>
+        <v>32.7008</v>
       </c>
       <c r="BA48" t="n">
-        <v>31.365</v>
+        <v>8.3515</v>
       </c>
       <c r="BB48" t="n">
-        <v>70.30759999999999</v>
+        <v>26.356</v>
       </c>
       <c r="BC48" t="n">
-        <v>43.0891</v>
+        <v>19.0936</v>
       </c>
     </row>
     <row r="49">
@@ -8556,25 +8556,25 @@
         <v>45470</v>
       </c>
       <c r="B49" t="n">
-        <v>1.7931</v>
+        <v>2.2156</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>91.33329999999999</v>
+        <v>386.1042</v>
       </c>
       <c r="E49" t="n">
-        <v>17.4074</v>
+        <v>20.353</v>
       </c>
       <c r="F49" t="n">
-        <v>89.5</v>
+        <v>71.35420000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>1.9883</v>
+        <v>2.3899</v>
       </c>
       <c r="H49" t="n">
-        <v>17.7955</v>
+        <v>17.0527</v>
       </c>
       <c r="I49" t="n">
         <v>0.4167</v>
@@ -8583,22 +8583,22 @@
         <v>178</v>
       </c>
       <c r="K49" t="n">
-        <v>97.523</v>
+        <v>97.547</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0646</v>
+        <v>0.0648</v>
       </c>
       <c r="M49" t="n">
-        <v>0.2087</v>
+        <v>0.6846</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1256</v>
+        <v>0.1475</v>
       </c>
       <c r="O49" t="n">
-        <v>5.6562</v>
+        <v>17.3435</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0589</v>
+        <v>0.1991</v>
       </c>
       <c r="Q49" t="n">
         <v>26</v>
@@ -8616,28 +8616,28 @@
         <v>0.73</v>
       </c>
       <c r="V49" t="n">
-        <v>0.0562</v>
+        <v>0.19</v>
       </c>
       <c r="W49" t="n">
-        <v>0.043</v>
+        <v>0.1453</v>
       </c>
       <c r="X49" t="n">
-        <v>-0.003</v>
+        <v>0.0288</v>
       </c>
       <c r="Y49" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>-0.024</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>-0.024</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>-0.039</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.021</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>26.381</v>
+        <v>24</v>
       </c>
       <c r="AI49" t="n">
         <v>21.619</v>
@@ -8664,22 +8664,22 @@
         <v>4.7438</v>
       </c>
       <c r="AL49" t="n">
-        <v>3.8043</v>
+        <v>2.0034</v>
       </c>
       <c r="AM49" t="n">
-        <v>2.3762</v>
+        <v>0.9413</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.0563</v>
+        <v>1.8969</v>
       </c>
       <c r="AO49" t="n">
-        <v>1.7192</v>
+        <v>0.5813</v>
       </c>
       <c r="AP49" t="n">
-        <v>3.7503</v>
+        <v>1.5657</v>
       </c>
       <c r="AQ49" t="n">
-        <v>2.3132</v>
+        <v>1.142</v>
       </c>
       <c r="AR49" t="n">
         <v>0</v>
@@ -8700,22 +8700,189 @@
         <v>0</v>
       </c>
       <c r="AX49" t="n">
-        <v>72.8785</v>
+        <v>38.3794</v>
       </c>
       <c r="AY49" t="n">
-        <v>45.522</v>
+        <v>18.0323</v>
       </c>
       <c r="AZ49" t="n">
-        <v>77.70610000000001</v>
+        <v>36.34</v>
       </c>
       <c r="BA49" t="n">
-        <v>32.9358</v>
+        <v>11.1357</v>
       </c>
       <c r="BB49" t="n">
-        <v>71.84399999999999</v>
+        <v>29.9952</v>
       </c>
       <c r="BC49" t="n">
-        <v>44.3151</v>
+        <v>21.8778</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.3175</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>31.5294</v>
+      </c>
+      <c r="E50" t="n">
+        <v>17.9967</v>
+      </c>
+      <c r="F50" t="n">
+        <v>82</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.0636</v>
+      </c>
+      <c r="H50" t="n">
+        <v>16.9212</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J50" t="n">
+        <v>179</v>
+      </c>
+      <c r="K50" t="n">
+        <v>97.52800000000001</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0646</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.3715</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.1297</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>26</v>
+      </c>
+      <c r="R50" t="n">
+        <v>8</v>
+      </c>
+      <c r="S50" t="n">
+        <v>6</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.0414</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0317</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>22.0952</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>4.839</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>2.0448</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.9384</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.6072</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.1737</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>39.1726</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>18.6392</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>37.1333</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>11.7427</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>30.7884</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>22.4847</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_results.xlsx
+++ b/Penman_irrigation_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Penman_irrigation_results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC50"/>
+  <dimension ref="A1:BC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8723,25 +8723,25 @@
         <v>45471</v>
       </c>
       <c r="B50" t="n">
-        <v>1.3175</v>
+        <v>1.9707</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>31.5294</v>
+        <v>165.9792</v>
       </c>
       <c r="E50" t="n">
-        <v>17.9967</v>
+        <v>23.2488</v>
       </c>
       <c r="F50" t="n">
-        <v>82</v>
+        <v>69.60420000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>2.0636</v>
+        <v>2.852</v>
       </c>
       <c r="H50" t="n">
-        <v>16.9212</v>
+        <v>19.8511</v>
       </c>
       <c r="I50" t="n">
         <v>0.4167</v>
@@ -8750,22 +8750,22 @@
         <v>179</v>
       </c>
       <c r="K50" t="n">
-        <v>97.52800000000001</v>
+        <v>97.571</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0646</v>
+        <v>0.065</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3715</v>
+        <v>0.8669</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1297</v>
+        <v>0.1722</v>
       </c>
       <c r="O50" t="n">
-        <v>3.219</v>
+        <v>8.729799999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0434</v>
+        <v>0.1292</v>
       </c>
       <c r="Q50" t="n">
         <v>26</v>
@@ -8783,10 +8783,10 @@
         <v>0.73</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0414</v>
+        <v>0.1233</v>
       </c>
       <c r="W50" t="n">
-        <v>0.0317</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -8831,22 +8831,22 @@
         <v>4.839</v>
       </c>
       <c r="AL50" t="n">
-        <v>2.0448</v>
+        <v>2.1267</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.973</v>
+        <v>1.0356</v>
       </c>
       <c r="AN50" t="n">
-        <v>1.9384</v>
+        <v>2.0202</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.613</v>
+        <v>0.6756</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.6072</v>
+        <v>1.689</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.1737</v>
+        <v>1.2363</v>
       </c>
       <c r="AR50" t="n">
         <v>0</v>
@@ -8867,22 +8867,189 @@
         <v>0</v>
       </c>
       <c r="AX50" t="n">
-        <v>39.1726</v>
+        <v>40.7412</v>
       </c>
       <c r="AY50" t="n">
-        <v>18.6392</v>
+        <v>19.8393</v>
       </c>
       <c r="AZ50" t="n">
-        <v>37.1333</v>
+        <v>38.7018</v>
       </c>
       <c r="BA50" t="n">
-        <v>11.7427</v>
+        <v>12.9427</v>
       </c>
       <c r="BB50" t="n">
-        <v>30.7884</v>
+        <v>32.357</v>
       </c>
       <c r="BC50" t="n">
-        <v>22.4847</v>
+        <v>23.6847</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45472</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.5099</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="D51" t="n">
+        <v>233.0606</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25.9057</v>
+      </c>
+      <c r="F51" t="n">
+        <v>82.93940000000001</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.3428</v>
+      </c>
+      <c r="H51" t="n">
+        <v>27.7246</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J51" t="n">
+        <v>180</v>
+      </c>
+      <c r="K51" t="n">
+        <v>97.592</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.5703</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.1977</v>
+      </c>
+      <c r="O51" t="n">
+        <v>12.3932</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>26</v>
+      </c>
+      <c r="R51" t="n">
+        <v>8</v>
+      </c>
+      <c r="S51" t="n">
+        <v>6</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.1147</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>22.5714</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>4.9343</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2.1267</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.0356</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>2.0202</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.6756</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.2363</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.7853</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.7853</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0.7853</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>40.7412</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>19.8393</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>38.7018</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>12.9427</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>32.357</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>23.6847</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_results.xlsx
+++ b/Penman_irrigation_results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC51"/>
+  <dimension ref="A1:BC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8890,25 +8890,25 @@
         <v>45472</v>
       </c>
       <c r="B51" t="n">
-        <v>3.5099</v>
+        <v>3.1209</v>
       </c>
       <c r="C51" t="n">
-        <v>22.86</v>
+        <v>23.876</v>
       </c>
       <c r="D51" t="n">
-        <v>233.0606</v>
+        <v>209.4792</v>
       </c>
       <c r="E51" t="n">
-        <v>25.9057</v>
+        <v>25.7106</v>
       </c>
       <c r="F51" t="n">
-        <v>82.93940000000001</v>
+        <v>82.04170000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>3.3428</v>
+        <v>3.3044</v>
       </c>
       <c r="H51" t="n">
-        <v>27.7246</v>
+        <v>27.1096</v>
       </c>
       <c r="I51" t="n">
         <v>0.4167</v>
@@ -8917,22 +8917,22 @@
         <v>180</v>
       </c>
       <c r="K51" t="n">
-        <v>97.592</v>
+        <v>97.59099999999999</v>
       </c>
       <c r="L51" t="n">
         <v>0.06510000000000001</v>
       </c>
       <c r="M51" t="n">
-        <v>0.5703</v>
+        <v>0.5934</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1977</v>
+        <v>0.1958</v>
       </c>
       <c r="O51" t="n">
-        <v>12.3932</v>
+        <v>11.23</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1571</v>
+        <v>0.1464</v>
       </c>
       <c r="Q51" t="n">
         <v>26</v>
@@ -8950,10 +8950,10 @@
         <v>0.73</v>
       </c>
       <c r="V51" t="n">
-        <v>0.1499</v>
+        <v>0.1397</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1147</v>
+        <v>0.1069</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>1.2363</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.7501</v>
+        <v>0.8003</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.7853</v>
+        <v>0.8331</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.7501</v>
+        <v>0.8003</v>
       </c>
       <c r="AU51" t="n">
-        <v>0.7853</v>
+        <v>0.8331</v>
       </c>
       <c r="AV51" t="n">
-        <v>0.7501</v>
+        <v>0.8003</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.7853</v>
+        <v>0.8331</v>
       </c>
       <c r="AX51" t="n">
         <v>40.7412</v>
@@ -9050,6 +9050,173 @@
       </c>
       <c r="BC51" t="n">
         <v>23.6847</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45473</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.7073</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>255.32</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19.2533</v>
+      </c>
+      <c r="F52" t="n">
+        <v>79.72</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.2324</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17.7964</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="J52" t="n">
+        <v>181</v>
+      </c>
+      <c r="K52" t="n">
+        <v>97.538</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.4528</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="O52" t="n">
+        <v>12.3359</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.1376</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>26</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>6</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.1313</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.1005</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2.5056</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.8288</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>2.0304</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.7776</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.5328000000000001</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>23.0476</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>5.0295</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.3227</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>6.8672</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>6.1829</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>15.4024</v>
       </c>
     </row>
   </sheetData>

--- a/Penman_irrigation_results.xlsx
+++ b/Penman_irrigation_results.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC52"/>
+  <dimension ref="A1:BC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -9057,25 +9057,25 @@
         <v>45473</v>
       </c>
       <c r="B52" t="n">
-        <v>2.7073</v>
+        <v>3.0604</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>255.32</v>
+        <v>364.3333</v>
       </c>
       <c r="E52" t="n">
-        <v>19.2533</v>
+        <v>18.7581</v>
       </c>
       <c r="F52" t="n">
-        <v>79.72</v>
+        <v>72.25</v>
       </c>
       <c r="G52" t="n">
-        <v>2.2324</v>
+        <v>2.1645</v>
       </c>
       <c r="H52" t="n">
-        <v>17.7964</v>
+        <v>15.6382</v>
       </c>
       <c r="I52" t="n">
         <v>0.4167</v>
@@ -9084,22 +9084,22 @@
         <v>181</v>
       </c>
       <c r="K52" t="n">
-        <v>97.538</v>
+        <v>97.53400000000001</v>
       </c>
       <c r="L52" t="n">
         <v>0.06469999999999999</v>
       </c>
       <c r="M52" t="n">
-        <v>0.4528</v>
+        <v>0.6007</v>
       </c>
       <c r="N52" t="n">
-        <v>0.139</v>
+        <v>0.1353</v>
       </c>
       <c r="O52" t="n">
-        <v>12.3359</v>
+        <v>16.2693</v>
       </c>
       <c r="P52" t="n">
-        <v>0.1376</v>
+        <v>0.1829</v>
       </c>
       <c r="Q52" t="n">
         <v>26</v>
@@ -9117,10 +9117,10 @@
         <v>0.73</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1313</v>
+        <v>0.1746</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1005</v>
+        <v>0.1335</v>
       </c>
       <c r="X52" t="n">
         <v>2.5056</v>
@@ -9168,19 +9168,19 @@
         <v>0</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.3585</v>
+        <v>0.3916</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.3227</v>
+        <v>0.366</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>0.0028</v>
       </c>
       <c r="AP52" t="n">
         <v>0</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.804</v>
+        <v>0.8371</v>
       </c>
       <c r="AR52" t="n">
         <v>0</v>
@@ -9204,19 +9204,186 @@
         <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>6.8672</v>
+        <v>7.501</v>
       </c>
       <c r="AZ52" t="n">
-        <v>6.1829</v>
+        <v>7.0112</v>
       </c>
       <c r="BA52" t="n">
-        <v>0</v>
+        <v>0.0527</v>
       </c>
       <c r="BB52" t="n">
         <v>0</v>
       </c>
       <c r="BC52" t="n">
-        <v>15.4024</v>
+        <v>16.0361</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2.3056</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>445.1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F53" t="n">
+        <v>68</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.9316</v>
+      </c>
+      <c r="H53" t="n">
+        <v>13.1349</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="J53" t="n">
+        <v>182</v>
+      </c>
+      <c r="K53" t="n">
+        <v>97.51900000000001</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.0645</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6181</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.1225</v>
+      </c>
+      <c r="O53" t="n">
+        <v>18.7895</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.2029</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>27</v>
+      </c>
+      <c r="R53" t="n">
+        <v>9</v>
+      </c>
+      <c r="S53" t="n">
+        <v>7</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.9583</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.1944</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.1775</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>23.5238</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>5.1248</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.1944</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.5691000000000001</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0.5604</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.1803</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.1944</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1.0146</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>3.7245</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>10.9017</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>10.7358</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>3.4534</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>3.7245</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>19.4368</v>
       </c>
     </row>
   </sheetData>
